--- a/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
+++ b/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Does not work</t>
+          <t>Works</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -454,7 +454,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employer's share of social security premium, 5 percent sale is not taken into account</t>
+          <t>employer's share of social security premium, 5 percent sale is taken into account</t>
         </is>
       </c>
     </row>
@@ -524,31 +524,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C11" t="n">
-        <v>536.7948413086964</v>
+        <v>2098.166202738807</v>
       </c>
       <c r="D11" t="n">
-        <v>3041.837434082612</v>
+        <v>11889.60848218657</v>
       </c>
       <c r="E11" t="n">
-        <v>456.2756151123918</v>
+        <v>1783.441272327985</v>
       </c>
       <c r="F11" t="n">
-        <v>27.16181897022003</v>
+        <v>106.1672098585836</v>
       </c>
       <c r="G11" t="n">
-        <v>3578.632275391309</v>
+        <v>13987.77468492538</v>
       </c>
       <c r="H11" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I11" t="n">
-        <v>2750.280000000001</v>
+        <v>10307.01</v>
       </c>
       <c r="J11" t="n">
-        <v>4383.824537354353</v>
+        <v>15036.85778629478</v>
       </c>
     </row>
     <row r="12">
@@ -558,31 +558,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="n">
-        <v>536.7948413086963</v>
+        <v>2098.166202738807</v>
       </c>
       <c r="D12" t="n">
-        <v>6083.674868165224</v>
+        <v>23779.21696437314</v>
       </c>
       <c r="E12" t="n">
-        <v>456.2756151123918</v>
+        <v>2072.402120546642</v>
       </c>
       <c r="F12" t="n">
-        <v>27.16181897022003</v>
+        <v>106.1672098585836</v>
       </c>
       <c r="G12" t="n">
-        <v>3578.632275391308</v>
+        <v>13987.77468492538</v>
       </c>
       <c r="H12" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I12" t="n">
-        <v>2750.280000000001</v>
+        <v>10018.04915178134</v>
       </c>
       <c r="J12" t="n">
-        <v>4383.824537354353</v>
+        <v>15036.85778629478</v>
       </c>
     </row>
     <row r="13">
@@ -592,31 +592,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C13" t="n">
-        <v>536.7948413086963</v>
+        <v>2149.618734442844</v>
       </c>
       <c r="D13" t="n">
-        <v>9125.512302247836</v>
+        <v>35960.38979288259</v>
       </c>
       <c r="E13" t="n">
-        <v>456.2756151123918</v>
+        <v>2436.23456570189</v>
       </c>
       <c r="F13" t="n">
-        <v>27.16181897022003</v>
+        <v>108.7707079628079</v>
       </c>
       <c r="G13" t="n">
-        <v>3578.632275391308</v>
+        <v>14330.79156295229</v>
       </c>
       <c r="H13" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I13" t="n">
-        <v>2750.280000000001</v>
+        <v>9943.177554844753</v>
       </c>
       <c r="J13" t="n">
-        <v>4383.824537354353</v>
+        <v>15405.60093017371</v>
       </c>
     </row>
     <row r="14">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C14" t="n">
-        <v>536.7948413086963</v>
+        <v>2214.402944949946</v>
       </c>
       <c r="D14" t="n">
-        <v>12167.34973633045</v>
+        <v>48508.67314759895</v>
       </c>
       <c r="E14" t="n">
-        <v>456.2756151123918</v>
+        <v>3105.263791275199</v>
       </c>
       <c r="F14" t="n">
-        <v>27.16181897022003</v>
+        <v>112.0487890144672</v>
       </c>
       <c r="G14" t="n">
-        <v>3578.632275391308</v>
+        <v>14762.6862996663</v>
       </c>
       <c r="H14" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I14" t="n">
-        <v>2750.280000000001</v>
+        <v>9637.980774426691</v>
       </c>
       <c r="J14" t="n">
-        <v>4383.824537354353</v>
+        <v>15869.88777214128</v>
       </c>
     </row>
     <row r="15">
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C15" t="n">
-        <v>536.7948413086963</v>
+        <v>2333.530666410988</v>
       </c>
       <c r="D15" t="n">
-        <v>15209.18717041306</v>
+        <v>61732.01359059455</v>
       </c>
       <c r="E15" t="n">
-        <v>456.2756151123918</v>
+        <v>3570.301919608811</v>
       </c>
       <c r="F15" t="n">
-        <v>27.16181897022003</v>
+        <v>118.076651720396</v>
       </c>
       <c r="G15" t="n">
-        <v>3578.632275391308</v>
+        <v>15556.87110940658</v>
       </c>
       <c r="H15" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I15" t="n">
-        <v>2750.280000000001</v>
+        <v>9841.971871666388</v>
       </c>
       <c r="J15" t="n">
-        <v>4383.824537354353</v>
+        <v>16723.63644261207</v>
       </c>
     </row>
     <row r="16">
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="n">
-        <v>536.7948413086963</v>
+        <v>2416.335617978564</v>
       </c>
       <c r="D16" t="n">
-        <v>18251.02460449567</v>
+        <v>75424.58209247308</v>
       </c>
       <c r="E16" t="n">
-        <v>468.8268453371755</v>
+        <v>3696.993495507202</v>
       </c>
       <c r="F16" t="n">
-        <v>27.16181897022003</v>
+        <v>122.2665822697153</v>
       </c>
       <c r="G16" t="n">
-        <v>3578.632275391308</v>
+        <v>16108.90411985709</v>
       </c>
       <c r="H16" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I16" t="n">
-        <v>2737.728769775217</v>
+        <v>10180.31842410161</v>
       </c>
       <c r="J16" t="n">
-        <v>4383.824537354353</v>
+        <v>17317.07192884637</v>
       </c>
     </row>
     <row r="17">
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C17" t="n">
-        <v>539.0297204455983</v>
+        <v>2438.894391479304</v>
       </c>
       <c r="D17" t="n">
-        <v>21305.5263536874</v>
+        <v>89244.98364418914</v>
       </c>
       <c r="E17" t="n">
-        <v>610.9003498383446</v>
+        <v>3731.508418963335</v>
       </c>
       <c r="F17" t="n">
-        <v>27.27490385454727</v>
+        <v>123.4080562088528</v>
       </c>
       <c r="G17" t="n">
-        <v>3593.531469637321</v>
+        <v>16259.29594319536</v>
       </c>
       <c r="H17" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I17" t="n">
-        <v>2608.206495498831</v>
+        <v>10272.49507654387</v>
       </c>
       <c r="J17" t="n">
-        <v>4402.076050305718</v>
+        <v>17478.74313893501</v>
       </c>
     </row>
     <row r="18">
@@ -762,31 +762,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C18" t="n">
-        <v>564.3274088338835</v>
+        <v>2445.040138227823</v>
       </c>
       <c r="D18" t="n">
-        <v>24503.38167041273</v>
+        <v>103100.2110941468</v>
       </c>
       <c r="E18" t="n">
-        <v>639.5710633450678</v>
+        <v>3740.911411488569</v>
       </c>
       <c r="F18" t="n">
-        <v>28.5549668869945</v>
+        <v>123.7190309943278</v>
       </c>
       <c r="G18" t="n">
-        <v>3762.182725559222</v>
+        <v>16300.26758818548</v>
       </c>
       <c r="H18" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I18" t="n">
-        <v>2721.609286493277</v>
+        <v>10297.60700747477</v>
       </c>
       <c r="J18" t="n">
-        <v>4608.673838810048</v>
+        <v>17522.7876572994</v>
       </c>
     </row>
     <row r="19">
@@ -796,31 +796,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C19" t="n">
-        <v>569.4325322607284</v>
+        <v>2446.714440383288</v>
       </c>
       <c r="D19" t="n">
-        <v>27730.1660198902</v>
+        <v>116964.9262563188</v>
       </c>
       <c r="E19" t="n">
-        <v>645.3568698954922</v>
+        <v>3743.47309378643</v>
       </c>
       <c r="F19" t="n">
-        <v>28.81328613239285</v>
+        <v>123.8037506833944</v>
       </c>
       <c r="G19" t="n">
-        <v>3796.216881738189</v>
+        <v>16311.42960255525</v>
       </c>
       <c r="H19" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I19" t="n">
-        <v>2744.494193449576</v>
+        <v>10304.44831770214</v>
       </c>
       <c r="J19" t="n">
-        <v>4650.365680129282</v>
+        <v>17534.78682274689</v>
       </c>
     </row>
     <row r="20">
@@ -830,31 +830,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C20" t="n">
-        <v>570.4627562402202</v>
+        <v>2447.170574978888</v>
       </c>
       <c r="D20" t="n">
-        <v>30962.78830525144</v>
+        <v>130832.2261811991</v>
       </c>
       <c r="E20" t="n">
-        <v>646.5244570722496</v>
+        <v>3744.170979717698</v>
       </c>
       <c r="F20" t="n">
-        <v>28.86541546575514</v>
+        <v>123.8268310939317</v>
       </c>
       <c r="G20" t="n">
-        <v>3803.085041601468</v>
+        <v>16314.47049985925</v>
       </c>
       <c r="H20" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I20" t="n">
-        <v>2749.112412823243</v>
+        <v>10306.31211406873</v>
       </c>
       <c r="J20" t="n">
-        <v>4658.779175961799</v>
+        <v>17538.05578734869</v>
       </c>
     </row>
     <row r="21">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C21" t="n">
-        <v>570.6706574718219</v>
+        <v>2447.294840941649</v>
       </c>
       <c r="D21" t="n">
-        <v>34196.58869759177</v>
+        <v>144700.2302798685</v>
       </c>
       <c r="E21" t="n">
-        <v>646.7600784680648</v>
+        <v>3744.361106640723</v>
       </c>
       <c r="F21" t="n">
-        <v>28.87593526807418</v>
+        <v>123.8331189516474</v>
       </c>
       <c r="G21" t="n">
-        <v>3804.471049812145</v>
+        <v>16315.29893961099</v>
       </c>
       <c r="H21" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I21" t="n">
-        <v>2750.044378604185</v>
+        <v>10306.81987307697</v>
       </c>
       <c r="J21" t="n">
-        <v>4660.477036019878</v>
+        <v>17538.94636008182</v>
       </c>
     </row>
     <row r="22">
@@ -898,31 +898,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2558.4</v>
+        <v>10000</v>
       </c>
       <c r="C22" t="n">
-        <v>570.7126123505298</v>
+        <v>2447.328695048858</v>
       </c>
       <c r="D22" t="n">
-        <v>37430.62683424477</v>
+        <v>158568.4262184786</v>
       </c>
       <c r="E22" t="n">
-        <v>646.8076273306004</v>
+        <v>4589.887000903041</v>
       </c>
       <c r="F22" t="n">
-        <v>28.8780581849368</v>
+        <v>123.8348319694722</v>
       </c>
       <c r="G22" t="n">
-        <v>3804.750749003531</v>
+        <v>16315.52463365905</v>
       </c>
       <c r="H22" t="n">
-        <v>191.88</v>
+        <v>307.01</v>
       </c>
       <c r="I22" t="n">
-        <v>2750.232451137465</v>
+        <v>9461.484105737683</v>
       </c>
       <c r="J22" t="n">
-        <v>4660.819667529327</v>
+        <v>17539.18898118348</v>
       </c>
     </row>
   </sheetData>

--- a/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
+++ b/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
@@ -461,7 +461,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Net to Gross</t>
+          <t>Gross to Net</t>
         </is>
       </c>
     </row>
@@ -473,32 +473,32 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>Gross</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Total Prim</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Cumulative Income Base</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Income Tax</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Stamp Tax</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>Net</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Total Prim</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Cumulative Income Base</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Income Tax</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Stamp Tax</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Gross</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -524,31 +524,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>536.7948413086964</v>
+        <v>2878.2</v>
       </c>
       <c r="D11" t="n">
-        <v>3041.837434082612</v>
+        <v>22121.8</v>
       </c>
       <c r="E11" t="n">
-        <v>456.2756151123918</v>
+        <v>3524.36</v>
       </c>
       <c r="F11" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G11" t="n">
-        <v>3578.632275391309</v>
+        <v>18407.69</v>
       </c>
       <c r="H11" t="n">
         <v>191.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2750.280000000001</v>
+        <v>18599.57</v>
       </c>
       <c r="J11" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="12">
@@ -558,31 +558,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C12" t="n">
-        <v>536.7948413086963</v>
+        <v>2878.2</v>
       </c>
       <c r="D12" t="n">
-        <v>6083.674868165224</v>
+        <v>44243.6</v>
       </c>
       <c r="E12" t="n">
-        <v>456.2756151123918</v>
+        <v>4721.412</v>
       </c>
       <c r="F12" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3578.632275391308</v>
+        <v>17210.638</v>
       </c>
       <c r="H12" t="n">
         <v>191.88</v>
       </c>
       <c r="I12" t="n">
-        <v>2750.280000000001</v>
+        <v>17402.518</v>
       </c>
       <c r="J12" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="13">
@@ -592,31 +592,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C13" t="n">
-        <v>536.7948413086963</v>
+        <v>2878.2</v>
       </c>
       <c r="D13" t="n">
-        <v>9125.512302247836</v>
+        <v>66365.39999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>456.2756151123918</v>
+        <v>5972.886</v>
       </c>
       <c r="F13" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G13" t="n">
-        <v>3578.632275391308</v>
+        <v>15959.164</v>
       </c>
       <c r="H13" t="n">
         <v>191.88</v>
       </c>
       <c r="I13" t="n">
-        <v>2750.280000000001</v>
+        <v>16151.044</v>
       </c>
       <c r="J13" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="14">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C14" t="n">
-        <v>536.7948413086963</v>
+        <v>2878.2</v>
       </c>
       <c r="D14" t="n">
-        <v>12167.34973633045</v>
+        <v>88487.2</v>
       </c>
       <c r="E14" t="n">
-        <v>456.2756151123918</v>
+        <v>5972.886</v>
       </c>
       <c r="F14" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3578.632275391308</v>
+        <v>15959.164</v>
       </c>
       <c r="H14" t="n">
         <v>191.88</v>
       </c>
       <c r="I14" t="n">
-        <v>2750.280000000001</v>
+        <v>16151.044</v>
       </c>
       <c r="J14" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="15">
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C15" t="n">
-        <v>536.7948413086963</v>
+        <v>2878.2</v>
       </c>
       <c r="D15" t="n">
-        <v>15209.18717041306</v>
+        <v>110609</v>
       </c>
       <c r="E15" t="n">
-        <v>456.2756151123918</v>
+        <v>5972.886</v>
       </c>
       <c r="F15" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3578.632275391308</v>
+        <v>15959.164</v>
       </c>
       <c r="H15" t="n">
         <v>191.88</v>
       </c>
       <c r="I15" t="n">
-        <v>2750.280000000001</v>
+        <v>16151.044</v>
       </c>
       <c r="J15" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="16">
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C16" t="n">
-        <v>536.7948413086963</v>
+        <v>2878.2</v>
       </c>
       <c r="D16" t="n">
-        <v>18251.02460449567</v>
+        <v>132730.8</v>
       </c>
       <c r="E16" t="n">
-        <v>468.8268453371755</v>
+        <v>5972.886</v>
       </c>
       <c r="F16" t="n">
-        <v>27.16181897022003</v>
+        <v>189.75</v>
       </c>
       <c r="G16" t="n">
-        <v>3578.632275391308</v>
+        <v>15959.164</v>
       </c>
       <c r="H16" t="n">
         <v>191.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2737.728769775217</v>
+        <v>16151.044</v>
       </c>
       <c r="J16" t="n">
-        <v>4383.824537354353</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="17">
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C17" t="n">
-        <v>539.0297204455983</v>
+        <v>2878.2</v>
       </c>
       <c r="D17" t="n">
-        <v>21305.5263536874</v>
+        <v>154852.6</v>
       </c>
       <c r="E17" t="n">
-        <v>610.9003498383446</v>
+        <v>6521.093999999996</v>
       </c>
       <c r="F17" t="n">
-        <v>27.27490385454727</v>
+        <v>189.75</v>
       </c>
       <c r="G17" t="n">
-        <v>3593.531469637321</v>
+        <v>15410.956</v>
       </c>
       <c r="H17" t="n">
         <v>191.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2608.206495498831</v>
+        <v>15602.836</v>
       </c>
       <c r="J17" t="n">
-        <v>4402.076050305718</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="18">
@@ -762,31 +762,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C18" t="n">
-        <v>564.3274088338835</v>
+        <v>2878.2</v>
       </c>
       <c r="D18" t="n">
-        <v>24503.38167041273</v>
+        <v>176974.4</v>
       </c>
       <c r="E18" t="n">
-        <v>639.5710633450678</v>
+        <v>7742.629999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>28.5549668869945</v>
+        <v>189.75</v>
       </c>
       <c r="G18" t="n">
-        <v>3762.182725559222</v>
+        <v>14189.42</v>
       </c>
       <c r="H18" t="n">
         <v>191.88</v>
       </c>
       <c r="I18" t="n">
-        <v>2721.609286493277</v>
+        <v>14381.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4608.673838810048</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="19">
@@ -796,31 +796,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C19" t="n">
-        <v>569.4325322607284</v>
+        <v>2878.2</v>
       </c>
       <c r="D19" t="n">
-        <v>27730.1660198902</v>
+        <v>199096.2</v>
       </c>
       <c r="E19" t="n">
-        <v>645.3568698954922</v>
+        <v>7742.629999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>28.81328613239285</v>
+        <v>189.75</v>
       </c>
       <c r="G19" t="n">
-        <v>3796.216881738189</v>
+        <v>14189.42</v>
       </c>
       <c r="H19" t="n">
         <v>191.88</v>
       </c>
       <c r="I19" t="n">
-        <v>2744.494193449576</v>
+        <v>14381.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4650.365680129282</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="20">
@@ -830,31 +830,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C20" t="n">
-        <v>570.4627562402202</v>
+        <v>2878.2</v>
       </c>
       <c r="D20" t="n">
-        <v>30962.78830525144</v>
+        <v>221217.9999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>646.5244570722496</v>
+        <v>7742.629999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>28.86541546575514</v>
+        <v>189.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3803.085041601468</v>
+        <v>14189.42</v>
       </c>
       <c r="H20" t="n">
         <v>191.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2749.112412823243</v>
+        <v>14381.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4658.779175961799</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="21">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C21" t="n">
-        <v>570.6706574718219</v>
+        <v>2878.2</v>
       </c>
       <c r="D21" t="n">
-        <v>34196.58869759177</v>
+        <v>243339.7999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>646.7600784680648</v>
+        <v>7742.629999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>28.87593526807418</v>
+        <v>189.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3804.471049812145</v>
+        <v>14189.42</v>
       </c>
       <c r="H21" t="n">
         <v>191.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2750.044378604185</v>
+        <v>14381.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4660.477036019878</v>
+        <v>29317.3</v>
       </c>
     </row>
     <row r="22">
@@ -898,31 +898,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2558.4</v>
+        <v>25000</v>
       </c>
       <c r="C22" t="n">
-        <v>570.7126123505298</v>
+        <v>2878.2</v>
       </c>
       <c r="D22" t="n">
-        <v>37430.62683424477</v>
+        <v>265461.5999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>646.8076273306004</v>
+        <v>7742.629999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>28.8780581849368</v>
+        <v>189.75</v>
       </c>
       <c r="G22" t="n">
-        <v>3804.750749003531</v>
+        <v>14189.42</v>
       </c>
       <c r="H22" t="n">
         <v>191.88</v>
       </c>
       <c r="I22" t="n">
-        <v>2750.232451137465</v>
+        <v>14381.3</v>
       </c>
       <c r="J22" t="n">
-        <v>4660.819667529327</v>
+        <v>29317.3</v>
       </c>
     </row>
   </sheetData>

--- a/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
+++ b/Salary/scripts/Results/Mazars_Gross_Net_Calculation.xlsx
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Married</t>
+          <t>Single</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Works</t>
+          <t>Does not work</t>
         </is>
       </c>
     </row>
@@ -441,27 +441,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total cost for employer is included</t>
+          <t xml:space="preserve">Total cost for employer is not included </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employer's share of social security premium, 5 percent sale is taken into account</t>
+          <t>employer's share of social security premium, 5 percent sale is not taken into account</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Net to Gross</t>
+          <t>Gross to Net</t>
         </is>
       </c>
     </row>
@@ -473,32 +473,32 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>Gross</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Total Prim</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Cumulative Income Base</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Income Tax</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Stamp Tax</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>Net</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Total Prim</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Cumulative Income Base</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Income Tax</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Stamp Tax</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Gross</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -524,31 +524,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.166202738807</v>
+        <v>-1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11889.60848218657</v>
+        <v>-8.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1783.441272327985</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>106.1672098585836</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>13987.77468492538</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I11" t="n">
-        <v>10307.01</v>
+        <v>183.4559</v>
       </c>
       <c r="J11" t="n">
-        <v>15036.85778629478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -558,31 +558,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C12" t="n">
-        <v>2098.166202738807</v>
+        <v>-1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>23779.21696437314</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="n">
-        <v>2072.402120546642</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>106.1672098585836</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>13987.77468492538</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I12" t="n">
-        <v>10018.04915178134</v>
+        <v>183.4559</v>
       </c>
       <c r="J12" t="n">
-        <v>15036.85778629478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -592,31 +592,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C13" t="n">
-        <v>2149.618734442844</v>
+        <v>-1.5</v>
       </c>
       <c r="D13" t="n">
-        <v>35960.38979288259</v>
+        <v>-25.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2436.23456570189</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.7707079628079</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>14330.79156295229</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I13" t="n">
-        <v>9943.177554844753</v>
+        <v>183.4559</v>
       </c>
       <c r="J13" t="n">
-        <v>15405.60093017371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C14" t="n">
-        <v>2214.402944949946</v>
+        <v>-1.5</v>
       </c>
       <c r="D14" t="n">
-        <v>48508.67314759895</v>
+        <v>-34</v>
       </c>
       <c r="E14" t="n">
-        <v>3105.263791275199</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>112.0487890144672</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>14762.6862996663</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I14" t="n">
-        <v>9637.980774426691</v>
+        <v>183.4559</v>
       </c>
       <c r="J14" t="n">
-        <v>15869.88777214128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C15" t="n">
-        <v>2333.530666410988</v>
+        <v>-1.5</v>
       </c>
       <c r="D15" t="n">
-        <v>61732.01359059455</v>
+        <v>-42.5</v>
       </c>
       <c r="E15" t="n">
-        <v>3570.301919608811</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>118.076651720396</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>15556.87110940658</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I15" t="n">
-        <v>9841.971871666388</v>
+        <v>183.4559</v>
       </c>
       <c r="J15" t="n">
-        <v>16723.63644261207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C16" t="n">
-        <v>2416.335617978564</v>
+        <v>-1.5</v>
       </c>
       <c r="D16" t="n">
-        <v>75424.58209247308</v>
+        <v>-51</v>
       </c>
       <c r="E16" t="n">
-        <v>3696.993495507202</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2665822697153</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>16108.90411985709</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I16" t="n">
-        <v>10180.31842410161</v>
+        <v>183.4559</v>
       </c>
       <c r="J16" t="n">
-        <v>17317.07192884637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C17" t="n">
-        <v>2438.894391479304</v>
+        <v>-1.5</v>
       </c>
       <c r="D17" t="n">
-        <v>89244.98364418914</v>
+        <v>-59.5</v>
       </c>
       <c r="E17" t="n">
-        <v>3731.508418963335</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>123.4080562088528</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>16259.29594319536</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I17" t="n">
-        <v>10272.49507654387</v>
+        <v>183.4559</v>
       </c>
       <c r="J17" t="n">
-        <v>17478.74313893501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -762,31 +762,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C18" t="n">
-        <v>2445.040138227823</v>
+        <v>-1.5</v>
       </c>
       <c r="D18" t="n">
-        <v>103100.2110941468</v>
+        <v>-68</v>
       </c>
       <c r="E18" t="n">
-        <v>3740.911411488569</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.7190309943278</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>16300.26758818548</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I18" t="n">
-        <v>10297.60700747477</v>
+        <v>183.4559</v>
       </c>
       <c r="J18" t="n">
-        <v>17522.7876572994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -796,31 +796,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C19" t="n">
-        <v>2446.714440383288</v>
+        <v>-1.5</v>
       </c>
       <c r="D19" t="n">
-        <v>116964.9262563188</v>
+        <v>-76.5</v>
       </c>
       <c r="E19" t="n">
-        <v>3743.47309378643</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>123.8037506833944</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>16311.42960255525</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I19" t="n">
-        <v>10304.44831770214</v>
+        <v>183.4559</v>
       </c>
       <c r="J19" t="n">
-        <v>17534.78682274689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -830,31 +830,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C20" t="n">
-        <v>2447.170574978888</v>
+        <v>-1.5</v>
       </c>
       <c r="D20" t="n">
-        <v>130832.2261811991</v>
+        <v>-85</v>
       </c>
       <c r="E20" t="n">
-        <v>3744.170979717698</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>123.8268310939317</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>16314.47049985925</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I20" t="n">
-        <v>10306.31211406873</v>
+        <v>183.4559</v>
       </c>
       <c r="J20" t="n">
-        <v>17538.05578734869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C21" t="n">
-        <v>2447.294840941649</v>
+        <v>-1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>144700.2302798685</v>
+        <v>-93.5</v>
       </c>
       <c r="E21" t="n">
-        <v>3744.361106640723</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.8331189516474</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>16315.29893961099</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I21" t="n">
-        <v>10306.81987307697</v>
+        <v>183.4559</v>
       </c>
       <c r="J21" t="n">
-        <v>17538.94636008182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -898,31 +898,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10000</v>
+        <v>-10</v>
       </c>
       <c r="C22" t="n">
-        <v>2447.328695048858</v>
+        <v>-1.5</v>
       </c>
       <c r="D22" t="n">
-        <v>158568.4262184786</v>
+        <v>-102</v>
       </c>
       <c r="E22" t="n">
-        <v>4589.887000903041</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>123.8348319694722</v>
+        <v>-0.07590000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>16315.52463365905</v>
+        <v>-8.424099999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>307.01</v>
+        <v>191.88</v>
       </c>
       <c r="I22" t="n">
-        <v>9461.484105737683</v>
+        <v>183.4559</v>
       </c>
       <c r="J22" t="n">
-        <v>17539.18898118348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
